--- a/src/resources/ulkeler.xlsx
+++ b/src/resources/ulkeler.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="574">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -2173,7 +2173,7 @@
   <dimension ref="A1:E191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2210,9 +2210,6 @@
       </c>
       <c r="D2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>150000.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
